--- a/biology/Zoologie/Chironomus/Chironomus.xlsx
+++ b/biology/Zoologie/Chironomus/Chironomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chironomus est un genre de diptères nématocères de la famille des Chironomidae (les chironomes) dont les larves sont connues sous le nom de « vers de vase » (rouges, parfois verts).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Selon ITIS :
@@ -577,9 +591,43 @@
 Chironomus whitseli Sublette &amp; Sublette, 1974
 Chironomus yoshimatsui Martin &amp; Sublette, 1972
 Noms en synonymie
-Chironomus elegans, un synonyme de Eurycnemus crassipes
-Espèces fossiles
-Selon Paleobiology Database[1] :
+Chironomus elegans, un synonyme de Eurycnemus crassipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chironomus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database :
 †Chironomus abietarius, Meunier 1904
 †Chironomus almelanderi, Arnaud 1966
 †Chironomus antiquus, Von Heyden 1859
